--- a/HW01_DSA(2)/Sorting.xlsx
+++ b/HW01_DSA(2)/Sorting.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\collage\Data Structure\DSA\HW01_DSA(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57763CFC-698A-4A2E-B1BA-415A6C3AC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Sorting" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Insertion</t>
   </si>
@@ -29,11 +43,23 @@
   <si>
     <t>Quick</t>
   </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input size</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -376,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -488,6 +514,138 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +778,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,10 +913,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>全部的比較</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>Insertion + Heap + Quick</a:t>
             </a:r>
@@ -730,7 +923,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -771,7 +963,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$A$1</c:f>
+              <c:f>'2Sorting'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -820,7 +1012,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$A$2:$E$2</c:f>
+              <c:f>'2Sorting'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -844,7 +1036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$A$13:$E$13</c:f>
+              <c:f>'2Sorting'!$B$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -878,7 +1070,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$G$1</c:f>
+              <c:f>'2Sorting'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -927,7 +1119,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$G$2:$K$2</c:f>
+              <c:f>'2Sorting'!$I$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -951,7 +1143,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$G$13:$K$13</c:f>
+              <c:f>'2Sorting'!$I$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -985,7 +1177,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$M$1</c:f>
+              <c:f>'2Sorting'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1034,7 +1226,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$M$2:$Q$2</c:f>
+              <c:f>'2Sorting'!$P$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1058,7 +1250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$M$13:$Q$13</c:f>
+              <c:f>'2Sorting'!$P$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1072,7 +1264,7 @@
                   <c:v>1.3860000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8280999999999996E-3</c:v>
+                  <c:v>1.5334000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6843300000000002E-2</c:v>
@@ -1145,7 +1337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1263,7 +1454,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1344,7 +1534,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1452,17 +1641,9 @@
               <a:rPr lang="zh-TW" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>比較</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1503,7 +1684,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$G$1</c:f>
+              <c:f>'2Sorting'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1552,7 +1733,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$G$2:$K$2</c:f>
+              <c:f>'2Sorting'!$I$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1576,7 +1757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$G$13:$K$13</c:f>
+              <c:f>'2Sorting'!$I$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1610,7 +1791,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$M$1</c:f>
+              <c:f>'2Sorting'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1659,7 +1840,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$M$2:$Q$2</c:f>
+              <c:f>'2Sorting'!$P$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1683,7 +1864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$M$13:$Q$13</c:f>
+              <c:f>'2Sorting'!$P$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1697,7 +1878,7 @@
                   <c:v>1.3860000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8280999999999996E-3</c:v>
+                  <c:v>1.5334000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6843300000000002E-2</c:v>
@@ -1770,7 +1951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1888,7 +2068,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1969,7 +2148,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2077,7 +2255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2118,7 +2295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$A$1</c:f>
+              <c:f>'2Sorting'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2167,7 +2344,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$A$2:$E$2</c:f>
+              <c:f>'2Sorting'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2191,7 +2368,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$A$13:$E$13</c:f>
+              <c:f>'2Sorting'!$B$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2278,7 +2455,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2396,7 +2572,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2477,7 +2652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2585,7 +2759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2626,7 +2799,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$G$1</c:f>
+              <c:f>'2Sorting'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2675,7 +2848,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$G$2:$K$2</c:f>
+              <c:f>'2Sorting'!$I$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2699,7 +2872,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$G$13:$K$13</c:f>
+              <c:f>'2Sorting'!$I$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2786,7 +2959,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2904,7 +3076,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2985,7 +3156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3093,7 +3263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3134,7 +3303,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2Sorting'!$M$1</c:f>
+              <c:f>'2Sorting'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3183,7 +3352,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2Sorting'!$M$2:$Q$2</c:f>
+              <c:f>'2Sorting'!$P$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3207,7 +3376,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2Sorting'!$M$13:$Q$13</c:f>
+              <c:f>'2Sorting'!$P$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3221,7 +3390,7 @@
                   <c:v>1.3860000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8280999999999996E-3</c:v>
+                  <c:v>1.5334000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6843300000000002E-2</c:v>
@@ -3294,7 +3463,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3412,7 +3580,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3493,7 +3660,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6344,20 +6510,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6374,20 +6546,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6406,20 +6584,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8"/>
+        <xdr:cNvPr id="9" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6438,20 +6622,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvPr id="10" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6470,20 +6660,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="圖表 10"/>
+        <xdr:cNvPr id="11" name="圖表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6765,604 +6961,735 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="14" max="14" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="5">
         <v>1000</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="5">
         <v>10000</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="6">
         <v>100000</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="J2" s="5">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="K2" s="5">
         <v>1000</v>
       </c>
-      <c r="J2">
+      <c r="L2" s="5">
         <v>10000</v>
       </c>
-      <c r="K2">
+      <c r="M2" s="6">
         <v>100000</v>
       </c>
-      <c r="M2">
+      <c r="O2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="Q2" s="5">
         <v>100</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="5">
         <v>1000</v>
       </c>
-      <c r="P2">
+      <c r="S2" s="5">
         <v>10000</v>
       </c>
-      <c r="Q2">
+      <c r="T2" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="2">
         <v>1.1E-5</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>9.0600000000000001E-4</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
         <v>8.6679000000000006E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="3">
         <v>7.9296530000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="2">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="2">
         <v>1.7200000000000001E-4</v>
       </c>
-      <c r="J3">
+      <c r="L3" s="2">
         <v>2.0379999999999999E-3</v>
       </c>
-      <c r="K3">
+      <c r="M3" s="3">
         <v>2.6817000000000001E-2</v>
       </c>
-      <c r="M3">
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="N3">
+      <c r="Q3" s="2">
         <v>1.2E-5</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="P3">
+      <c r="S3" s="2">
         <v>1.407E-3</v>
       </c>
-      <c r="Q3">
+      <c r="T3" s="3">
         <v>1.6109999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="5">
         <v>9.0799999999999995E-4</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="5">
         <v>7.8681000000000001E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="6">
         <v>7.4200439999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="5">
         <v>1.5E-5</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="5">
         <v>1.9799999999999999E-4</v>
       </c>
-      <c r="J4">
+      <c r="L4" s="5">
         <v>2.1489999999999999E-3</v>
       </c>
-      <c r="K4">
+      <c r="M4" s="6">
         <v>2.7955000000000001E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4" s="11">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="N4">
+      <c r="Q4" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="5">
         <v>1.4300000000000001E-4</v>
       </c>
-      <c r="P4">
+      <c r="S4" s="5">
         <v>1.4289999999999999E-3</v>
       </c>
-      <c r="Q4">
+      <c r="T4" s="6">
         <v>1.5736E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="5">
         <v>1.4E-5</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="5">
         <v>9.6100000000000005E-4</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="5">
         <v>7.6074000000000003E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="6">
         <v>7.9141079999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="5">
         <v>1.1E-5</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="5">
         <v>1.66E-4</v>
       </c>
-      <c r="J5">
+      <c r="L5" s="5">
         <v>2.1459999999999999E-3</v>
       </c>
-      <c r="K5">
+      <c r="M5" s="6">
         <v>2.6875E-2</v>
       </c>
-      <c r="M5">
+      <c r="O5" s="11">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="N5">
+      <c r="Q5" s="5">
         <v>1.4E-5</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="5">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="P5">
-        <v>1.4385E-2</v>
-      </c>
-      <c r="Q5">
+      <c r="S5" s="5">
+        <v>1.438E-3</v>
+      </c>
+      <c r="T5" s="6">
         <v>1.5900999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="5">
         <v>1.1E-5</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="5">
         <v>8.7900000000000001E-4</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="5">
         <v>7.8916E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="6">
         <v>8.0237719999999992</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="5">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="5">
         <v>1.8100000000000001E-4</v>
       </c>
-      <c r="J6">
+      <c r="L6" s="5">
         <v>2.1359999999999999E-3</v>
       </c>
-      <c r="K6">
+      <c r="M6" s="6">
         <v>2.7653E-2</v>
       </c>
-      <c r="M6">
+      <c r="O6" s="11">
+        <v>4</v>
+      </c>
+      <c r="P6" s="4">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="N6">
+      <c r="Q6" s="5">
         <v>1.8E-5</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="5">
         <v>1.6799999999999999E-4</v>
       </c>
-      <c r="P6">
+      <c r="S6" s="5">
         <v>1.555E-3</v>
       </c>
-      <c r="Q6">
+      <c r="T6" s="6">
         <v>1.6025000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="5">
         <v>1.1E-5</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="5">
         <v>8.6200000000000003E-4</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="5">
         <v>7.4399000000000007E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="6">
         <v>7.4043840000000003</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H7">
+      <c r="J7" s="5">
         <v>1.4E-5</v>
       </c>
-      <c r="I7">
+      <c r="K7" s="5">
         <v>1.8100000000000001E-4</v>
       </c>
-      <c r="J7">
+      <c r="L7" s="5">
         <v>2.1489999999999999E-3</v>
       </c>
-      <c r="K7">
+      <c r="M7" s="6">
         <v>2.7227999999999999E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7" s="11">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="N7">
+      <c r="Q7" s="5">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="5">
         <v>1.12E-4</v>
       </c>
-      <c r="P7">
+      <c r="S7" s="5">
         <v>1.83E-3</v>
       </c>
-      <c r="Q7">
+      <c r="T7" s="6">
         <v>1.5604E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="5">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="5">
         <v>1.0189999999999999E-3</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="5">
         <v>7.5221999999999997E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="6">
         <v>8.0590410000000006</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H8">
+      <c r="J8" s="5">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I8">
+      <c r="K8" s="5">
         <v>1.63E-4</v>
       </c>
-      <c r="J8">
+      <c r="L8" s="5">
         <v>2.0430000000000001E-3</v>
       </c>
-      <c r="K8">
+      <c r="M8" s="6">
         <v>2.3816E-2</v>
       </c>
-      <c r="M8">
+      <c r="O8" s="11">
+        <v>6</v>
+      </c>
+      <c r="P8" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="N8">
+      <c r="Q8" s="5">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="5">
         <v>1.13E-4</v>
       </c>
-      <c r="P8">
+      <c r="S8" s="5">
         <v>1.5460000000000001E-3</v>
       </c>
-      <c r="Q8">
+      <c r="T8" s="6">
         <v>1.5831999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="5">
         <v>1.5E-5</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="5">
         <v>8.9300000000000002E-4</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="5">
         <v>8.0188999999999996E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="6">
         <v>7.9529170000000002</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="11">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="H9">
+      <c r="J9" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="5">
         <v>1.95E-4</v>
       </c>
-      <c r="J9">
+      <c r="L9" s="5">
         <v>2.4420000000000002E-3</v>
       </c>
-      <c r="K9">
+      <c r="M9" s="6">
         <v>2.6483E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9" s="11">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="N9">
+      <c r="Q9" s="5">
         <v>1.1E-5</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="5">
         <v>1.44E-4</v>
       </c>
-      <c r="P9">
+      <c r="S9" s="5">
         <v>1.56E-3</v>
       </c>
-      <c r="Q9">
+      <c r="T9" s="6">
         <v>1.8192E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="5">
         <v>1.1E-5</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="5">
         <v>9.0899999999999998E-4</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="5">
         <v>8.2522999999999999E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="6">
         <v>8.1158370000000009</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="11">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="H10">
+      <c r="J10" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="I10">
+      <c r="K10" s="5">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="J10">
+      <c r="L10" s="5">
         <v>2.0939999999999999E-3</v>
       </c>
-      <c r="K10">
+      <c r="M10" s="6">
         <v>2.5652000000000001E-2</v>
       </c>
-      <c r="M10">
+      <c r="O10" s="11">
+        <v>8</v>
+      </c>
+      <c r="P10" s="4">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="N10">
+      <c r="Q10" s="5">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="5">
         <v>1.55E-4</v>
       </c>
-      <c r="P10">
+      <c r="S10" s="5">
         <v>1.5E-3</v>
       </c>
-      <c r="Q10">
+      <c r="T10" s="6">
         <v>1.822E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="5">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="5">
         <v>8.5127999999999995E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="6">
         <v>7.6431950000000004</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H11">
+      <c r="J11" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="I11">
+      <c r="K11" s="5">
         <v>1.7100000000000001E-4</v>
       </c>
-      <c r="J11">
+      <c r="L11" s="5">
         <v>1.9919999999999998E-3</v>
       </c>
-      <c r="K11">
+      <c r="M11" s="6">
         <v>2.7623000000000002E-2</v>
       </c>
-      <c r="M11">
+      <c r="O11" s="11">
+        <v>9</v>
+      </c>
+      <c r="P11" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="N11">
+      <c r="Q11" s="5">
         <v>1.1E-5</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="5">
         <v>1.2E-4</v>
       </c>
-      <c r="P11">
+      <c r="S11" s="5">
         <v>1.5610000000000001E-3</v>
       </c>
-      <c r="Q11">
+      <c r="T11" s="6">
         <v>1.8525E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="8">
         <v>1.2E-5</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="8">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="8">
         <v>7.9051999999999997E-2</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="9">
         <v>7.5125330000000003</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="H12">
+      <c r="J12" s="8">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I12">
+      <c r="K12" s="8">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="J12">
+      <c r="L12" s="8">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="K12">
+      <c r="M12" s="9">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12" s="12">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="N12">
+      <c r="Q12" s="8">
         <v>1.2E-5</v>
       </c>
-      <c r="O12">
+      <c r="R12" s="8">
         <v>1.3200000000000001E-4</v>
       </c>
-      <c r="P12">
+      <c r="S12" s="8">
         <v>1.508E-3</v>
       </c>
-      <c r="Q12">
+      <c r="T12" s="9">
         <v>1.8287999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>AVERAGE(A$3:A$12)</f>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8">
+        <f>AVERAGE(B$3:B$12)</f>
         <v>2.3000000000000004E-6</v>
       </c>
-      <c r="B13">
-        <f t="shared" ref="B13:Q13" si="0">AVERAGE(B$3:B$12)</f>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:T13" si="0">AVERAGE(C$3:C$12)</f>
         <v>1.1799999999999999E-5</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>9.1169999999999999E-4</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>7.9686300000000002E-2</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>7.797548400000001</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>2.7000000000000004E-6</v>
       </c>
-      <c r="H13">
+      <c r="J13" s="8">
         <f t="shared" si="0"/>
         <v>1.3899999999999999E-5</v>
       </c>
-      <c r="I13">
+      <c r="K13" s="8">
         <f t="shared" si="0"/>
         <v>1.7499999999999997E-4</v>
       </c>
-      <c r="J13">
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>2.1278999999999998E-3</v>
       </c>
-      <c r="K13">
+      <c r="M13" s="9">
         <f t="shared" si="0"/>
         <v>2.6577899999999998E-2</v>
       </c>
-      <c r="M13">
+      <c r="O13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" si="0"/>
         <v>3.2999999999999997E-6</v>
       </c>
-      <c r="N13">
+      <c r="Q13" s="8">
         <f t="shared" si="0"/>
         <v>1.19E-5</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="8">
         <f t="shared" si="0"/>
         <v>1.3860000000000001E-4</v>
       </c>
-      <c r="P13">
+      <c r="S13" s="8">
         <f t="shared" si="0"/>
-        <v>2.8280999999999996E-3</v>
-      </c>
-      <c r="Q13">
+        <v>1.5334000000000001E-3</v>
+      </c>
+      <c r="T13" s="9">
         <f t="shared" si="0"/>
         <v>1.6843300000000002E-2</v>
       </c>
